--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2894.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2894.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.209956681686805</v>
+        <v>1.808914661407471</v>
       </c>
       <c r="B1">
-        <v>-1</v>
+        <v>1.93298864364624</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>2.087076187133789</v>
       </c>
       <c r="D1">
-        <v>-1</v>
+        <v>2.989427328109741</v>
       </c>
       <c r="E1">
-        <v>1.201234467078302</v>
+        <v>3.130656003952026</v>
       </c>
     </row>
   </sheetData>
